--- a/Output/BLRA_classifier_training_segments.xlsx
+++ b/Output/BLRA_classifier_training_segments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adsmith\OneDrive - DOI\Documents\FWS_Projects\BLRA_SALS_SESP\BLRA_ARUs\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_B892CDEFBAB13F7EF7A2091ACE1E8F33090E4173" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{A8E6D347-D8E7-4C3B-924C-1AF67EDEF366}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B892CDEFBAB13F7EF7B28D1F4A6B7ED79DA67FBA" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{2916CC38-0EDE-4614-A2ED-3E0B25F00BC7}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="349">
   <si>
     <t>fn</t>
   </si>
@@ -40,24 +40,60 @@
     <t>sample_rate</t>
   </si>
   <si>
+    <t>CODNR_CHURT_GRR_VM4_060719_0_00000_000.wav</t>
+  </si>
+  <si>
     <t>CODNR_churt_mediocre_0_raven_aif_orig.wav</t>
   </si>
   <si>
     <t>CODNR_churts_excellent_1_raven_aif_orig.wav</t>
   </si>
   <si>
+    <t>CODNR_CHURTS_RF9_052619_0_00000_000.wav</t>
+  </si>
+  <si>
+    <t>CODNR_FAINTGRR_JM3_050819_1_00000_000.wav</t>
+  </si>
+  <si>
     <t>CODNR_growl_excellent_0_raven_aif_orig.wav</t>
   </si>
   <si>
     <t>CODNR_grr_excellent_1_raven_aif_orig.wav</t>
   </si>
   <si>
+    <t>CODNR_GRR_JM1_052119_0_00000_000.wav</t>
+  </si>
+  <si>
+    <t>CODNR_GRR_JM1_052119_B_1_00000_000.wav</t>
+  </si>
+  <si>
     <t>CODNR_grr_mediocre_1_raven_aif_orig.wav</t>
   </si>
   <si>
+    <t>CODNR_GRR_RF11_052619_1_00000_000.wav</t>
+  </si>
+  <si>
     <t>CODNR_grr_tch_excellent_1_raven_aif_orig.wav</t>
   </si>
   <si>
+    <t>CODNR_GRR_VM2_052219_1_00000_000.wav</t>
+  </si>
+  <si>
+    <t>CODNR_GRR_VM2_052219_B_1_00000_000.wav</t>
+  </si>
+  <si>
+    <t>CODNR_GRR_VM3_050719_0_00000_000.wav</t>
+  </si>
+  <si>
+    <t>CODNR_GRR_VM3_050719_B_0_00000_000.wav</t>
+  </si>
+  <si>
+    <t>CODNR_GRR_VM3_050719_C_1_00000_000.wav</t>
+  </si>
+  <si>
+    <t>CODNR_GRRS_VM3_052219_B_1_00000_000.wav</t>
+  </si>
+  <si>
     <t>CODNR_kd_derr_good_1_raven_aif_orig.wav</t>
   </si>
   <si>
@@ -166,60 +202,114 @@
     <t>IM02-CDR2H_0_20190514_013000_000_007.wav</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190514_013000_000_011.wav</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190514_013000_000_015.wav</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190514_013000_000_092.wav</t>
   </si>
   <si>
+    <t>182</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190514_013000_000_096.wav</t>
   </si>
   <si>
+    <t>190</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190514_073002_000_012.wav</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190514_073002_000_025.wav</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190514_073002_000_030.wav</t>
   </si>
   <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190514_073002_000_033.wav</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190514_073002_000_058.wav</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190515_173003_000_040.wav</t>
   </si>
   <si>
+    <t>78</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190515_173003_000_064.wav</t>
   </si>
   <si>
+    <t>126</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190515_173003_000_072.wav</t>
   </si>
   <si>
+    <t>142</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190515_173003_000_104.wav</t>
   </si>
   <si>
+    <t>206</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190515_173003_000_118.wav</t>
   </si>
   <si>
+    <t>234</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190515_213003_000_013.wav</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190515_213003_000_018.wav</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190515_213003_000_064.wav</t>
   </si>
   <si>
     <t>IM02-CDR2H_0_20190515_213003_000_076.wav</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190515_213003_000_092.wav</t>
   </si>
   <si>
@@ -229,21 +319,36 @@
     <t>IM02-CDR2H_0_20190515_233003_000_078.wav</t>
   </si>
   <si>
+    <t>154</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190515_233003_000_090.wav</t>
   </si>
   <si>
+    <t>178</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190515_233003_000_100.wav</t>
   </si>
   <si>
+    <t>198</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190515_233003_000_104.wav</t>
   </si>
   <si>
     <t>IM02-CDR2H_0_20190516_233003_000_041.wav</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190516_233003_000_060.wav</t>
   </si>
   <si>
+    <t>118</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190516_233003_000_076.wav</t>
   </si>
   <si>
@@ -253,54 +358,99 @@
     <t>IM02-CDR2H_0_20190516_233003_000_114.wav</t>
   </si>
   <si>
+    <t>226</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190517_033003_000_001.wav</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190517_033003_000_011.wav</t>
   </si>
   <si>
     <t>IM02-CDR2H_0_20190517_033003_000_020.wav</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190517_033003_000_024.wav</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190517_033003_000_033.wav</t>
   </si>
   <si>
     <t>IM02-CDR2H_0_20190518_053003_000_006.wav</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190518_053003_000_046.wav</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190518_053003_000_048.wav</t>
   </si>
   <si>
+    <t>94</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190518_053003_000_062.wav</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190518_053003_000_068.wav</t>
   </si>
   <si>
+    <t>134</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190518_053003_000_069.wav</t>
   </si>
   <si>
+    <t>136</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_0_20190518_053003_000_071.wav</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190513_233000_000_003.wav</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190513_233000_000_029.wav</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190513_233000_000_085.wav</t>
   </si>
   <si>
+    <t>168</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190513_233000_000_111.wav</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190513_233000_000_114.wav</t>
   </si>
   <si>
@@ -310,63 +460,105 @@
     <t>IM02-CDR2H_1_20190514_033001_000_035.wav</t>
   </si>
   <si>
+    <t>68</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190514_033001_000_047.wav</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190514_033001_000_055.wav</t>
   </si>
   <si>
+    <t>108</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190514_033001_000_078.wav</t>
   </si>
   <si>
     <t>IM02-CDR2H_1_20190514_053001_000_036.wav</t>
   </si>
   <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190514_053001_000_055.wav</t>
   </si>
   <si>
     <t>IM02-CDR2H_1_20190514_053001_000_056.wav</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190514_053001_000_088.wav</t>
   </si>
   <si>
+    <t>174</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190514_053001_000_109.wav</t>
   </si>
   <si>
+    <t>216</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190515_053003_000_007.wav</t>
   </si>
   <si>
     <t>IM02-CDR2H_1_20190515_053003_000_038.wav</t>
   </si>
   <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190515_053003_000_039.wav</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190515_053003_000_040.wav</t>
   </si>
   <si>
     <t>IM02-CDR2H_1_20190515_053003_000_052.wav</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190515_153003_000_014.wav</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190515_153003_000_063.wav</t>
   </si>
   <si>
+    <t>124</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190515_153003_000_078.wav</t>
   </si>
   <si>
     <t>IM02-CDR2H_1_20190515_153003_000_079.wav</t>
   </si>
   <si>
+    <t>156</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190515_153003_000_114.wav</t>
   </si>
   <si>
     <t>IM02-CDR2H_1_20190515_193003_000_004.wav</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190515_193003_000_013.wav</t>
   </si>
   <si>
@@ -376,9 +568,15 @@
     <t>IM02-CDR2H_1_20190515_193003_000_105.wav</t>
   </si>
   <si>
+    <t>208</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190515_193003_000_110.wav</t>
   </si>
   <si>
+    <t>218</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190515_193003_000_118.wav</t>
   </si>
   <si>
@@ -388,21 +586,36 @@
     <t>IM02-CDR2H_1_20190516_013003_000_019.wav</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190516_013003_000_057.wav</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190516_013003_000_078.wav</t>
   </si>
   <si>
     <t>IM02-CDR2H_1_20190516_013003_000_089.wav</t>
   </si>
   <si>
+    <t>176</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190516_033003_000_002.wav</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190516_033003_000_005.wav</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190516_033003_000_013.wav</t>
   </si>
   <si>
@@ -415,21 +628,36 @@
     <t>IM02-CDR2H_1_20190516_053004_000_045.wav</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190516_053004_000_091.wav</t>
   </si>
   <si>
+    <t>180</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190516_053004_000_092.wav</t>
   </si>
   <si>
     <t>IM02-CDR2H_1_20190516_053004_000_098.wav</t>
   </si>
   <si>
+    <t>194</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190516_053004_000_102.wav</t>
   </si>
   <si>
+    <t>202</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190517_013003_000_026.wav</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>IM02-CDR2H_1_20190517_013003_000_040.wav</t>
   </si>
   <si>
@@ -442,21 +670,36 @@
     <t>IM02-CDR2H_1_20190517_013003_000_108.wav</t>
   </si>
   <si>
+    <t>214</t>
+  </si>
+  <si>
     <t>IM06-CDR6H_1_20190508_012502_000_031.wav</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>IM06-CDR6H_1_20190508_012502_000_052.wav</t>
   </si>
   <si>
     <t>IM06-CDR6H_1_20190508_012502_000_054.wav</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
     <t>IM06-CDR6H_1_20190508_012502_000_075.wav</t>
   </si>
   <si>
+    <t>148</t>
+  </si>
+  <si>
     <t>IM06-CDR6H_1_20190508_012502_000_087.wav</t>
   </si>
   <si>
+    <t>172</t>
+  </si>
+  <si>
     <t>IM09-SMK01X_1_20190613_200806_004_012.wav</t>
   </si>
   <si>
@@ -466,18 +709,30 @@
     <t>IM09-SMK01X_1_20190613_200806_004_017.wav</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>IM09-SMK01X_1_20190613_200806_004_022.wav</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>IM10-CDR10H_0_20190509_232503_000_043.wav</t>
   </si>
   <si>
+    <t>84</t>
+  </si>
+  <si>
     <t>IM10-CDR10H_0_20190509_232503_000_046.wav</t>
   </si>
   <si>
     <t>IM10-CDR10H_0_20190509_232503_000_050.wav</t>
   </si>
   <si>
+    <t>98</t>
+  </si>
+  <si>
     <t>IM10-CDR10H_0_20190509_232503_000_100.wav</t>
   </si>
   <si>
@@ -496,21 +751,36 @@
     <t>IM10-CDR10H_1_20190510_012504_000_119.wav</t>
   </si>
   <si>
+    <t>236</t>
+  </si>
+  <si>
     <t>IM10-CDR10H_1_20190510_012504_000_120.wav</t>
   </si>
   <si>
+    <t>238</t>
+  </si>
+  <si>
     <t>IM10-CDR10H_1_20190510_032504_000_007.wav</t>
   </si>
   <si>
     <t>IM10-CDR10H_1_20190510_032504_000_009.wav</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>IM10-CDR10H_1_20190510_032504_000_010.wav</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>IM10-CDR10H_1_20190510_032504_000_034.wav</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>IM10-CDR10H_1_20190510_032504_000_088.wav</t>
   </si>
   <si>
@@ -565,6 +835,9 @@
     <t>SCDNR_BEAR-CMARSH_0_20170526_202501_006_008.wav</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>SCDNR_BEAR-CMARSH_0_20170526_202501_006_012.wav</t>
   </si>
   <si>
@@ -580,12 +853,18 @@
     <t>SCDNR_BEAR-CMARSH_0_20180826_085302_004_016.wav</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>SCDNR_BEAR-CMARSH_0_20180826_085302_004_025.wav</t>
   </si>
   <si>
     <t>SCDNR_BEAR-CMARSH_0_20180826_085302_004_028.wav</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>SCDNR_BEAR-CMARSH_0_20180826_085302_004_029.wav</t>
   </si>
   <si>
@@ -658,6 +937,9 @@
     <t>SCDNR_BEAR-CMARSH_1_20170526_182501_006_059.wav</t>
   </si>
   <si>
+    <t>116</t>
+  </si>
+  <si>
     <t>SCDNR_BEAR-CMARSH_1_20170526_182501_006_060.wav</t>
   </si>
   <si>
@@ -667,10 +949,16 @@
     <t>SCDNR_BEAR-CMARSH_1_20170526_192501_006_023.wav</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>SCDNR_BEAR-CMARSH_1_20170526_192501_006_038.wav</t>
   </si>
   <si>
     <t>SCDNR_BEAR-CMARSH_1_20170526_192501_006_042.wav</t>
+  </si>
+  <si>
+    <t>82</t>
   </si>
   <si>
     <t>SCDNR_BEAR-CMARSH_1_20170526_192501_006_045.wav</t>
@@ -1121,18 +1409,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F248"/>
+  <dimension ref="A1:F260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="73.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -1162,12 +1450,11 @@
         <v>6</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="D2" s="1"/>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>44100</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1175,9 +1462,8 @@
         <v>7</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
       <c r="E3">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>44100</v>
@@ -1188,9 +1474,8 @@
         <v>8</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="D4" s="1"/>
       <c r="E4">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>44100</v>
@@ -1201,12 +1486,11 @@
         <v>9</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="D5" s="1"/>
       <c r="E5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>44100</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,12 +1498,11 @@
         <v>10</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="D6" s="1"/>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="F6">
-        <v>44100</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1227,9 +1510,8 @@
         <v>11</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="D7" s="1"/>
       <c r="E7">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>44100</v>
@@ -1240,9 +1522,8 @@
         <v>12</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="D8" s="1"/>
       <c r="E8">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>44100</v>
@@ -1253,12 +1534,11 @@
         <v>13</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="D9" s="1"/>
       <c r="E9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>44100</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,12 +1546,11 @@
         <v>14</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="D10" s="1"/>
       <c r="E10">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>44100</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1279,12 +1558,11 @@
         <v>15</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
       <c r="E11">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>22050</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1292,9 +1570,8 @@
         <v>16</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
       <c r="E12">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>22050</v>
@@ -1305,12 +1582,11 @@
         <v>17</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
       <c r="E13">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="F13">
-        <v>22050</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,9 +1594,8 @@
         <v>18</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
       <c r="E14">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F14">
         <v>22050</v>
@@ -1331,9 +1606,8 @@
         <v>19</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
       <c r="E15">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>22050</v>
@@ -1344,9 +1618,8 @@
         <v>20</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="D16" s="1"/>
       <c r="E16">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>22050</v>
@@ -1357,9 +1630,8 @@
         <v>21</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
       <c r="E17">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>22050</v>
@@ -1370,9 +1642,8 @@
         <v>22</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="D18" s="1"/>
       <c r="E18">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="F18">
         <v>22050</v>
@@ -1383,9 +1654,8 @@
         <v>23</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="D19" s="1"/>
       <c r="E19">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F19">
         <v>22050</v>
@@ -1396,12 +1666,11 @@
         <v>24</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="D20" s="1"/>
       <c r="E20">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F20">
-        <v>22050</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1409,12 +1678,11 @@
         <v>25</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="D21" s="1"/>
       <c r="E21">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F21">
-        <v>22050</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1422,12 +1690,11 @@
         <v>26</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="D22" s="1"/>
       <c r="E22">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F22">
-        <v>22050</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1435,7 +1702,6 @@
         <v>27</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="D23" s="1"/>
       <c r="E23">
         <v>60</v>
       </c>
@@ -1448,7 +1714,6 @@
         <v>28</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="D24" s="1"/>
       <c r="E24">
         <v>60</v>
       </c>
@@ -1461,12 +1726,11 @@
         <v>29</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="D25" s="1"/>
       <c r="E25">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F25">
-        <v>44100</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1474,12 +1738,11 @@
         <v>30</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="D26" s="1"/>
       <c r="E26">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F26">
-        <v>44100</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1487,12 +1750,11 @@
         <v>31</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="D27" s="1"/>
       <c r="E27">
         <v>60</v>
       </c>
       <c r="F27">
-        <v>48000</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1500,12 +1762,11 @@
         <v>32</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="D28" s="1"/>
       <c r="E28">
         <v>60</v>
       </c>
       <c r="F28">
-        <v>48000</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,12 +1774,11 @@
         <v>33</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="D29" s="1"/>
       <c r="E29">
         <v>60</v>
       </c>
       <c r="F29">
-        <v>44100</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,12 +1786,11 @@
         <v>34</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="D30" s="1"/>
       <c r="E30">
         <v>60</v>
       </c>
       <c r="F30">
-        <v>44100</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1539,12 +1798,11 @@
         <v>35</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="D31" s="1"/>
       <c r="E31">
         <v>60</v>
       </c>
       <c r="F31">
-        <v>44100</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1552,12 +1810,11 @@
         <v>36</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="D32" s="1"/>
       <c r="E32">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F32">
-        <v>44100</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1565,12 +1822,11 @@
         <v>37</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="D33" s="1"/>
       <c r="E33">
         <v>60</v>
       </c>
       <c r="F33">
-        <v>44100</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1578,12 +1834,11 @@
         <v>38</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="D34" s="1"/>
       <c r="E34">
         <v>60</v>
       </c>
       <c r="F34">
-        <v>44100</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1591,12 +1846,11 @@
         <v>39</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="D35" s="1"/>
       <c r="E35">
         <v>60</v>
       </c>
       <c r="F35">
-        <v>44100</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,12 +1858,11 @@
         <v>40</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="D36" s="1"/>
       <c r="E36">
         <v>60</v>
       </c>
       <c r="F36">
-        <v>44100</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1617,9 +1870,8 @@
         <v>41</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="D37" s="1"/>
       <c r="E37">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F37">
         <v>44100</v>
@@ -1630,9 +1882,8 @@
         <v>42</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="D38" s="1"/>
       <c r="E38">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F38">
         <v>44100</v>
@@ -1643,12 +1894,11 @@
         <v>43</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="D39" s="1"/>
       <c r="E39">
         <v>60</v>
       </c>
       <c r="F39">
-        <v>44100</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1656,12 +1906,11 @@
         <v>44</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="D40" s="1"/>
       <c r="E40">
         <v>60</v>
       </c>
       <c r="F40">
-        <v>44100</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1669,9 +1918,8 @@
         <v>45</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="D41" s="1"/>
       <c r="E41">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F41">
         <v>44100</v>
@@ -1682,252 +1930,155 @@
         <v>46</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="D42" s="1"/>
       <c r="E42">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F42">
-        <v>48000</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="1">
-        <v>43599.062500000007</v>
-      </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
-      <c r="D43" s="1">
-        <v>43599.066666666673</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="E43">
         <v>60</v>
       </c>
       <c r="F43">
-        <v>22050</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="1">
-        <v>43599.062500000007</v>
-      </c>
-      <c r="C44">
-        <v>10</v>
-      </c>
-      <c r="D44" s="1">
-        <v>43599.069444444445</v>
-      </c>
+      <c r="B44" s="1"/>
       <c r="E44">
         <v>60</v>
       </c>
       <c r="F44">
-        <v>22050</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="1">
-        <v>43599.062500000007</v>
-      </c>
-      <c r="C45">
-        <v>14</v>
-      </c>
-      <c r="D45" s="1">
-        <v>43599.072222222225</v>
-      </c>
+      <c r="B45" s="1"/>
       <c r="E45">
         <v>60</v>
       </c>
       <c r="F45">
-        <v>22050</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="1">
-        <v>43599.062500000007</v>
-      </c>
-      <c r="C46">
-        <v>91</v>
-      </c>
-      <c r="D46" s="1">
-        <v>43599.125694444447</v>
-      </c>
+      <c r="B46" s="1"/>
       <c r="E46">
         <v>60</v>
       </c>
       <c r="F46">
-        <v>22050</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="1">
-        <v>43599.062500000007</v>
-      </c>
-      <c r="C47">
-        <v>95</v>
-      </c>
-      <c r="D47" s="1">
-        <v>43599.128472222226</v>
-      </c>
+      <c r="B47" s="1"/>
       <c r="E47">
         <v>60</v>
       </c>
       <c r="F47">
-        <v>22050</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="1">
-        <v>43599.312523148146</v>
-      </c>
-      <c r="C48">
-        <v>11</v>
-      </c>
-      <c r="D48" s="1">
-        <v>43599.320162037038</v>
-      </c>
+      <c r="B48" s="1"/>
       <c r="E48">
         <v>60</v>
       </c>
       <c r="F48">
-        <v>22050</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="1">
-        <v>43599.312523148146</v>
-      </c>
-      <c r="C49">
-        <v>24</v>
-      </c>
-      <c r="D49" s="1">
-        <v>43599.329189814816</v>
-      </c>
+      <c r="B49" s="1"/>
       <c r="E49">
         <v>60</v>
       </c>
       <c r="F49">
-        <v>22050</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="1">
-        <v>43599.312523148146</v>
-      </c>
-      <c r="C50">
-        <v>29</v>
-      </c>
-      <c r="D50" s="1">
-        <v>43599.332662037043</v>
-      </c>
+      <c r="B50" s="1"/>
       <c r="E50">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F50">
-        <v>22050</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="1">
-        <v>43599.312523148146</v>
-      </c>
-      <c r="C51">
-        <v>32</v>
-      </c>
-      <c r="D51" s="1">
-        <v>43599.334745370368</v>
-      </c>
+      <c r="B51" s="1"/>
       <c r="E51">
         <v>60</v>
       </c>
       <c r="F51">
-        <v>22050</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="1">
-        <v>43599.312523148146</v>
-      </c>
-      <c r="C52">
-        <v>57</v>
-      </c>
-      <c r="D52" s="1">
-        <v>43599.352106481485</v>
-      </c>
+      <c r="B52" s="1"/>
       <c r="E52">
         <v>60</v>
       </c>
       <c r="F52">
-        <v>22050</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="1">
-        <v>43600.729201388887</v>
-      </c>
-      <c r="C53">
-        <v>39</v>
-      </c>
-      <c r="D53" s="1">
-        <v>43600.756284722222</v>
-      </c>
+      <c r="B53" s="1"/>
       <c r="E53">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>22050</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="1">
-        <v>43600.729201388887</v>
-      </c>
-      <c r="C54">
-        <v>63</v>
-      </c>
-      <c r="D54" s="1">
-        <v>43600.772951388892</v>
-      </c>
+      <c r="B54" s="1"/>
       <c r="E54">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>22050</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1935,13 +2086,13 @@
         <v>59</v>
       </c>
       <c r="B55" s="1">
-        <v>43600.729201388887</v>
+        <v>43599.0625</v>
       </c>
       <c r="C55">
-        <v>71</v>
-      </c>
-      <c r="D55" s="1">
-        <v>43600.778506944444</v>
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>60</v>
       </c>
       <c r="E55">
         <v>60</v>
@@ -1952,16 +2103,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1">
-        <v>43600.729201388887</v>
+        <v>43599.0625</v>
       </c>
       <c r="C56">
-        <v>103</v>
-      </c>
-      <c r="D56" s="1">
-        <v>43600.800729166665</v>
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>62</v>
       </c>
       <c r="E56">
         <v>60</v>
@@ -1972,16 +2123,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57" s="1">
-        <v>43600.729201388887</v>
+        <v>43599.0625</v>
       </c>
       <c r="C57">
-        <v>117</v>
-      </c>
-      <c r="D57" s="1">
-        <v>43600.81045138889</v>
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
       </c>
       <c r="E57">
         <v>60</v>
@@ -1992,16 +2143,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58" s="1">
-        <v>43600.895868055559</v>
+        <v>43599.0625</v>
       </c>
       <c r="C58">
-        <v>12</v>
-      </c>
-      <c r="D58" s="1">
-        <v>43600.90420138889</v>
+        <v>91</v>
+      </c>
+      <c r="D58" t="s">
+        <v>66</v>
       </c>
       <c r="E58">
         <v>60</v>
@@ -2012,16 +2163,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59" s="1">
-        <v>43600.895868055559</v>
+        <v>43599.0625</v>
       </c>
       <c r="C59">
-        <v>17</v>
-      </c>
-      <c r="D59" s="1">
-        <v>43600.907673611109</v>
+        <v>95</v>
+      </c>
+      <c r="D59" t="s">
+        <v>68</v>
       </c>
       <c r="E59">
         <v>60</v>
@@ -2032,16 +2183,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60" s="1">
-        <v>43600.895868055559</v>
+        <v>43599.312523148103</v>
       </c>
       <c r="C60">
-        <v>63</v>
-      </c>
-      <c r="D60" s="1">
-        <v>43600.939618055556</v>
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>70</v>
       </c>
       <c r="E60">
         <v>60</v>
@@ -2052,16 +2203,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B61" s="1">
-        <v>43600.895868055559</v>
+        <v>43599.312523148103</v>
       </c>
       <c r="C61">
-        <v>75</v>
-      </c>
-      <c r="D61" s="1">
-        <v>43600.947951388887</v>
+        <v>24</v>
+      </c>
+      <c r="D61" t="s">
+        <v>72</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2072,16 +2223,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B62" s="1">
-        <v>43600.895868055559</v>
+        <v>43599.312523148103</v>
       </c>
       <c r="C62">
-        <v>91</v>
-      </c>
-      <c r="D62" s="1">
-        <v>43600.959062500006</v>
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
+        <v>74</v>
       </c>
       <c r="E62">
         <v>60</v>
@@ -2092,16 +2243,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B63" s="1">
-        <v>43600.979201388887</v>
+        <v>43599.312523148103</v>
       </c>
       <c r="C63">
-        <v>6</v>
-      </c>
-      <c r="D63" s="1">
-        <v>43600.983368055553</v>
+        <v>32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>76</v>
       </c>
       <c r="E63">
         <v>60</v>
@@ -2112,16 +2263,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B64" s="1">
-        <v>43600.979201388887</v>
+        <v>43599.312523148103</v>
       </c>
       <c r="C64">
-        <v>77</v>
-      </c>
-      <c r="D64" s="1">
-        <v>43601.032673611109</v>
+        <v>57</v>
+      </c>
+      <c r="D64" t="s">
+        <v>78</v>
       </c>
       <c r="E64">
         <v>60</v>
@@ -2132,16 +2283,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1">
-        <v>43600.979201388887</v>
+        <v>43600.729201388902</v>
       </c>
       <c r="C65">
-        <v>89</v>
-      </c>
-      <c r="D65" s="1">
-        <v>43601.041006944448</v>
+        <v>39</v>
+      </c>
+      <c r="D65" t="s">
+        <v>80</v>
       </c>
       <c r="E65">
         <v>60</v>
@@ -2152,16 +2303,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B66" s="1">
-        <v>43600.979201388887</v>
+        <v>43600.729201388902</v>
       </c>
       <c r="C66">
-        <v>99</v>
-      </c>
-      <c r="D66" s="1">
-        <v>43601.047951388893</v>
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>82</v>
       </c>
       <c r="E66">
         <v>60</v>
@@ -2172,16 +2323,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43600.729201388902</v>
+      </c>
+      <c r="C67">
         <v>71</v>
       </c>
-      <c r="B67" s="1">
-        <v>43600.979201388887</v>
-      </c>
-      <c r="C67">
-        <v>103</v>
-      </c>
-      <c r="D67" s="1">
-        <v>43601.050729166665</v>
+      <c r="D67" t="s">
+        <v>84</v>
       </c>
       <c r="E67">
         <v>60</v>
@@ -2192,16 +2343,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B68" s="1">
-        <v>43601.979201388887</v>
+        <v>43600.729201388902</v>
       </c>
       <c r="C68">
-        <v>40</v>
-      </c>
-      <c r="D68" s="1">
-        <v>43602.006979166668</v>
+        <v>103</v>
+      </c>
+      <c r="D68" t="s">
+        <v>86</v>
       </c>
       <c r="E68">
         <v>60</v>
@@ -2212,16 +2363,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B69" s="1">
-        <v>43601.979201388887</v>
+        <v>43600.729201388902</v>
       </c>
       <c r="C69">
-        <v>59</v>
-      </c>
-      <c r="D69" s="1">
-        <v>43602.020173611112</v>
+        <v>117</v>
+      </c>
+      <c r="D69" t="s">
+        <v>88</v>
       </c>
       <c r="E69">
         <v>60</v>
@@ -2232,16 +2383,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B70" s="1">
-        <v>43601.979201388887</v>
+        <v>43600.895868055602</v>
       </c>
       <c r="C70">
-        <v>75</v>
-      </c>
-      <c r="D70" s="1">
-        <v>43602.031284722223</v>
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>90</v>
       </c>
       <c r="E70">
         <v>60</v>
@@ -2252,16 +2403,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B71" s="1">
-        <v>43601.979201388887</v>
+        <v>43600.895868055602</v>
       </c>
       <c r="C71">
-        <v>99</v>
-      </c>
-      <c r="D71" s="1">
-        <v>43602.047951388893</v>
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>92</v>
       </c>
       <c r="E71">
         <v>60</v>
@@ -2272,16 +2423,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B72" s="1">
-        <v>43601.979201388887</v>
+        <v>43600.895868055602</v>
       </c>
       <c r="C72">
-        <v>113</v>
-      </c>
-      <c r="D72" s="1">
-        <v>43602.057673611118</v>
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>82</v>
       </c>
       <c r="E72">
         <v>60</v>
@@ -2292,16 +2443,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B73" s="1">
-        <v>43602.145868055559</v>
+        <v>43600.895868055602</v>
       </c>
       <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1">
-        <v>43602.145868055559</v>
+        <v>75</v>
+      </c>
+      <c r="D73" t="s">
+        <v>95</v>
       </c>
       <c r="E73">
         <v>60</v>
@@ -2312,16 +2463,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B74" s="1">
-        <v>43602.145868055559</v>
+        <v>43600.895868055602</v>
       </c>
       <c r="C74">
-        <v>10</v>
-      </c>
-      <c r="D74" s="1">
-        <v>43602.152812500004</v>
+        <v>91</v>
+      </c>
+      <c r="D74" t="s">
+        <v>66</v>
       </c>
       <c r="E74">
         <v>60</v>
@@ -2332,16 +2483,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B75" s="1">
-        <v>43602.145868055559</v>
+        <v>43600.979201388902</v>
       </c>
       <c r="C75">
-        <v>19</v>
-      </c>
-      <c r="D75" s="1">
-        <v>43602.159062500003</v>
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>60</v>
       </c>
       <c r="E75">
         <v>60</v>
@@ -2352,16 +2503,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B76" s="1">
-        <v>43602.145868055559</v>
+        <v>43600.979201388902</v>
       </c>
       <c r="C76">
-        <v>23</v>
-      </c>
-      <c r="D76" s="1">
-        <v>43602.161840277775</v>
+        <v>77</v>
+      </c>
+      <c r="D76" t="s">
+        <v>99</v>
       </c>
       <c r="E76">
         <v>60</v>
@@ -2372,16 +2523,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B77" s="1">
-        <v>43602.145868055559</v>
+        <v>43600.979201388902</v>
       </c>
       <c r="C77">
-        <v>32</v>
-      </c>
-      <c r="D77" s="1">
-        <v>43602.168090277781</v>
+        <v>89</v>
+      </c>
+      <c r="D77" t="s">
+        <v>101</v>
       </c>
       <c r="E77">
         <v>60</v>
@@ -2392,16 +2543,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B78" s="1">
-        <v>43603.229201388887</v>
+        <v>43600.979201388902</v>
       </c>
       <c r="C78">
-        <v>5</v>
-      </c>
-      <c r="D78" s="1">
-        <v>43603.232673611114</v>
+        <v>99</v>
+      </c>
+      <c r="D78" t="s">
+        <v>103</v>
       </c>
       <c r="E78">
         <v>60</v>
@@ -2412,16 +2563,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B79" s="1">
-        <v>43603.229201388887</v>
+        <v>43600.979201388902</v>
       </c>
       <c r="C79">
-        <v>45</v>
-      </c>
-      <c r="D79" s="1">
-        <v>43603.260451388887</v>
+        <v>103</v>
+      </c>
+      <c r="D79" t="s">
+        <v>86</v>
       </c>
       <c r="E79">
         <v>60</v>
@@ -2432,16 +2583,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B80" s="1">
-        <v>43603.229201388887</v>
+        <v>43601.979201388902</v>
       </c>
       <c r="C80">
-        <v>47</v>
-      </c>
-      <c r="D80" s="1">
-        <v>43603.261840277781</v>
+        <v>40</v>
+      </c>
+      <c r="D80" t="s">
+        <v>106</v>
       </c>
       <c r="E80">
         <v>60</v>
@@ -2452,16 +2603,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B81" s="1">
-        <v>43603.229201388887</v>
+        <v>43601.979201388902</v>
       </c>
       <c r="C81">
-        <v>61</v>
-      </c>
-      <c r="D81" s="1">
-        <v>43603.271562500006</v>
+        <v>59</v>
+      </c>
+      <c r="D81" t="s">
+        <v>108</v>
       </c>
       <c r="E81">
         <v>60</v>
@@ -2472,16 +2623,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B82" s="1">
-        <v>43603.229201388887</v>
+        <v>43601.979201388902</v>
       </c>
       <c r="C82">
-        <v>67</v>
-      </c>
-      <c r="D82" s="1">
-        <v>43603.275729166671</v>
+        <v>75</v>
+      </c>
+      <c r="D82" t="s">
+        <v>95</v>
       </c>
       <c r="E82">
         <v>60</v>
@@ -2492,16 +2643,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B83" s="1">
-        <v>43603.229201388887</v>
+        <v>43601.979201388902</v>
       </c>
       <c r="C83">
-        <v>68</v>
-      </c>
-      <c r="D83" s="1">
-        <v>43603.276423611118</v>
+        <v>99</v>
+      </c>
+      <c r="D83" t="s">
+        <v>103</v>
       </c>
       <c r="E83">
         <v>60</v>
@@ -2512,16 +2663,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B84" s="1">
-        <v>43603.229201388887</v>
+        <v>43601.979201388902</v>
       </c>
       <c r="C84">
-        <v>70</v>
-      </c>
-      <c r="D84" s="1">
-        <v>43603.277812500004</v>
+        <v>113</v>
+      </c>
+      <c r="D84" t="s">
+        <v>112</v>
       </c>
       <c r="E84">
         <v>60</v>
@@ -2532,16 +2683,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B85" s="1">
-        <v>43598.979166666664</v>
+        <v>43602.145868055602</v>
       </c>
       <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85" s="1">
-        <v>43598.980555555558</v>
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>114</v>
       </c>
       <c r="E85">
         <v>60</v>
@@ -2552,16 +2703,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B86" s="1">
-        <v>43598.979166666664</v>
+        <v>43602.145868055602</v>
       </c>
       <c r="C86">
-        <v>28</v>
-      </c>
-      <c r="D86" s="1">
-        <v>43598.998611111114</v>
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>62</v>
       </c>
       <c r="E86">
         <v>60</v>
@@ -2572,16 +2723,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B87" s="1">
-        <v>43598.979166666664</v>
+        <v>43602.145868055602</v>
       </c>
       <c r="C87">
-        <v>84</v>
-      </c>
-      <c r="D87" s="1">
-        <v>43599.037499999999</v>
+        <v>19</v>
+      </c>
+      <c r="D87" t="s">
+        <v>117</v>
       </c>
       <c r="E87">
         <v>60</v>
@@ -2592,16 +2743,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B88" s="1">
-        <v>43598.979166666664</v>
+        <v>43602.145868055602</v>
       </c>
       <c r="C88">
-        <v>110</v>
-      </c>
-      <c r="D88" s="1">
-        <v>43599.055555555555</v>
+        <v>23</v>
+      </c>
+      <c r="D88" t="s">
+        <v>119</v>
       </c>
       <c r="E88">
         <v>60</v>
@@ -2612,16 +2763,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B89" s="1">
-        <v>43598.979166666664</v>
+        <v>43602.145868055602</v>
       </c>
       <c r="C89">
-        <v>113</v>
-      </c>
-      <c r="D89" s="1">
-        <v>43599.057638888895</v>
+        <v>32</v>
+      </c>
+      <c r="D89" t="s">
+        <v>76</v>
       </c>
       <c r="E89">
         <v>60</v>
@@ -2632,16 +2783,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B90" s="1">
-        <v>43599.145844907405</v>
+        <v>43603.229201388902</v>
       </c>
       <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90" s="1">
-        <v>43599.145844907405</v>
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>122</v>
       </c>
       <c r="E90">
         <v>60</v>
@@ -2652,16 +2803,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B91" s="1">
-        <v>43599.145844907405</v>
+        <v>43603.229201388902</v>
       </c>
       <c r="C91">
-        <v>34</v>
-      </c>
-      <c r="D91" s="1">
-        <v>43599.169456018521</v>
+        <v>45</v>
+      </c>
+      <c r="D91" t="s">
+        <v>124</v>
       </c>
       <c r="E91">
         <v>60</v>
@@ -2672,16 +2823,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B92" s="1">
-        <v>43599.145844907405</v>
+        <v>43603.229201388902</v>
       </c>
       <c r="C92">
-        <v>46</v>
-      </c>
-      <c r="D92" s="1">
-        <v>43599.177789351852</v>
+        <v>47</v>
+      </c>
+      <c r="D92" t="s">
+        <v>126</v>
       </c>
       <c r="E92">
         <v>60</v>
@@ -2692,16 +2843,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B93" s="1">
-        <v>43599.145844907405</v>
+        <v>43603.229201388902</v>
       </c>
       <c r="C93">
-        <v>54</v>
-      </c>
-      <c r="D93" s="1">
-        <v>43599.183344907411</v>
+        <v>61</v>
+      </c>
+      <c r="D93" t="s">
+        <v>128</v>
       </c>
       <c r="E93">
         <v>60</v>
@@ -2712,16 +2863,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B94" s="1">
-        <v>43599.145844907405</v>
+        <v>43603.229201388902</v>
       </c>
       <c r="C94">
-        <v>77</v>
-      </c>
-      <c r="D94" s="1">
-        <v>43599.199317129627</v>
+        <v>67</v>
+      </c>
+      <c r="D94" t="s">
+        <v>130</v>
       </c>
       <c r="E94">
         <v>60</v>
@@ -2732,16 +2883,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B95" s="1">
-        <v>43599.229178240748</v>
+        <v>43603.229201388902</v>
       </c>
       <c r="C95">
-        <v>35</v>
-      </c>
-      <c r="D95" s="1">
-        <v>43599.253483796296</v>
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>132</v>
       </c>
       <c r="E95">
         <v>60</v>
@@ -2752,16 +2903,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="B96" s="1">
-        <v>43599.229178240748</v>
+        <v>43603.229201388902</v>
       </c>
       <c r="C96">
-        <v>54</v>
-      </c>
-      <c r="D96" s="1">
-        <v>43599.26667824074</v>
+        <v>70</v>
+      </c>
+      <c r="D96" t="s">
+        <v>134</v>
       </c>
       <c r="E96">
         <v>60</v>
@@ -2772,16 +2923,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B97" s="1">
-        <v>43599.229178240748</v>
+        <v>43598.979166666701</v>
       </c>
       <c r="C97">
-        <v>55</v>
-      </c>
-      <c r="D97" s="1">
-        <v>43599.267372685186</v>
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>136</v>
       </c>
       <c r="E97">
         <v>60</v>
@@ -2792,16 +2943,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="B98" s="1">
-        <v>43599.229178240748</v>
+        <v>43598.979166666701</v>
       </c>
       <c r="C98">
-        <v>87</v>
-      </c>
-      <c r="D98" s="1">
-        <v>43599.289594907408</v>
+        <v>28</v>
+      </c>
+      <c r="D98" t="s">
+        <v>138</v>
       </c>
       <c r="E98">
         <v>60</v>
@@ -2812,16 +2963,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="B99" s="1">
-        <v>43599.229178240748</v>
+        <v>43598.979166666701</v>
       </c>
       <c r="C99">
-        <v>108</v>
-      </c>
-      <c r="D99" s="1">
-        <v>43599.304178240745</v>
+        <v>84</v>
+      </c>
+      <c r="D99" t="s">
+        <v>140</v>
       </c>
       <c r="E99">
         <v>60</v>
@@ -2832,16 +2983,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="B100" s="1">
-        <v>43600.229201388887</v>
+        <v>43598.979166666701</v>
       </c>
       <c r="C100">
-        <v>6</v>
-      </c>
-      <c r="D100" s="1">
-        <v>43600.233368055553</v>
+        <v>110</v>
+      </c>
+      <c r="D100" t="s">
+        <v>142</v>
       </c>
       <c r="E100">
         <v>60</v>
@@ -2852,16 +3003,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="B101" s="1">
-        <v>43600.229201388887</v>
+        <v>43598.979166666701</v>
       </c>
       <c r="C101">
-        <v>37</v>
-      </c>
-      <c r="D101" s="1">
-        <v>43600.254895833335</v>
+        <v>113</v>
+      </c>
+      <c r="D101" t="s">
+        <v>112</v>
       </c>
       <c r="E101">
         <v>60</v>
@@ -2872,16 +3023,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="B102" s="1">
-        <v>43600.229201388887</v>
+        <v>43599.145844907398</v>
       </c>
       <c r="C102">
-        <v>38</v>
-      </c>
-      <c r="D102" s="1">
-        <v>43600.255590277775</v>
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>114</v>
       </c>
       <c r="E102">
         <v>60</v>
@@ -2892,16 +3043,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="B103" s="1">
-        <v>43600.229201388887</v>
+        <v>43599.145844907398</v>
       </c>
       <c r="C103">
-        <v>39</v>
-      </c>
-      <c r="D103" s="1">
-        <v>43600.256284722222</v>
+        <v>34</v>
+      </c>
+      <c r="D103" t="s">
+        <v>146</v>
       </c>
       <c r="E103">
         <v>60</v>
@@ -2912,16 +3063,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="B104" s="1">
-        <v>43600.229201388887</v>
+        <v>43599.145844907398</v>
       </c>
       <c r="C104">
-        <v>51</v>
-      </c>
-      <c r="D104" s="1">
-        <v>43600.264618055553</v>
+        <v>46</v>
+      </c>
+      <c r="D104" t="s">
+        <v>148</v>
       </c>
       <c r="E104">
         <v>60</v>
@@ -2932,16 +3083,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B105" s="1">
-        <v>43600.645868055559</v>
+        <v>43599.145844907398</v>
       </c>
       <c r="C105">
-        <v>13</v>
-      </c>
-      <c r="D105" s="1">
-        <v>43600.654895833337</v>
+        <v>54</v>
+      </c>
+      <c r="D105" t="s">
+        <v>150</v>
       </c>
       <c r="E105">
         <v>60</v>
@@ -2952,16 +3103,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="B106" s="1">
-        <v>43600.645868055559</v>
+        <v>43599.145844907398</v>
       </c>
       <c r="C106">
-        <v>62</v>
-      </c>
-      <c r="D106" s="1">
-        <v>43600.688923611109</v>
+        <v>77</v>
+      </c>
+      <c r="D106" t="s">
+        <v>99</v>
       </c>
       <c r="E106">
         <v>60</v>
@@ -2972,16 +3123,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="B107" s="1">
-        <v>43600.645868055559</v>
+        <v>43599.229178240697</v>
       </c>
       <c r="C107">
-        <v>77</v>
-      </c>
-      <c r="D107" s="1">
-        <v>43600.699340277781</v>
+        <v>35</v>
+      </c>
+      <c r="D107" t="s">
+        <v>153</v>
       </c>
       <c r="E107">
         <v>60</v>
@@ -2992,16 +3143,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="B108" s="1">
-        <v>43600.645868055559</v>
+        <v>43599.229178240697</v>
       </c>
       <c r="C108">
-        <v>78</v>
-      </c>
-      <c r="D108" s="1">
-        <v>43600.700034722227</v>
+        <v>54</v>
+      </c>
+      <c r="D108" t="s">
+        <v>150</v>
       </c>
       <c r="E108">
         <v>60</v>
@@ -3012,16 +3163,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="B109" s="1">
-        <v>43600.645868055559</v>
+        <v>43599.229178240697</v>
       </c>
       <c r="C109">
-        <v>113</v>
-      </c>
-      <c r="D109" s="1">
-        <v>43600.724340277775</v>
+        <v>55</v>
+      </c>
+      <c r="D109" t="s">
+        <v>156</v>
       </c>
       <c r="E109">
         <v>60</v>
@@ -3032,16 +3183,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B110" s="1">
-        <v>43600.812534722223</v>
+        <v>43599.229178240697</v>
       </c>
       <c r="C110">
-        <v>3</v>
-      </c>
-      <c r="D110" s="1">
-        <v>43600.814618055556</v>
+        <v>87</v>
+      </c>
+      <c r="D110" t="s">
+        <v>158</v>
       </c>
       <c r="E110">
         <v>60</v>
@@ -3052,16 +3203,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="B111" s="1">
-        <v>43600.812534722223</v>
+        <v>43599.229178240697</v>
       </c>
       <c r="C111">
-        <v>12</v>
-      </c>
-      <c r="D111" s="1">
-        <v>43600.820868055562</v>
+        <v>108</v>
+      </c>
+      <c r="D111" t="s">
+        <v>160</v>
       </c>
       <c r="E111">
         <v>60</v>
@@ -3072,16 +3223,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="B112" s="1">
-        <v>43600.812534722223</v>
+        <v>43600.229201388902</v>
       </c>
       <c r="C112">
-        <v>17</v>
-      </c>
-      <c r="D112" s="1">
-        <v>43600.824340277781</v>
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>60</v>
       </c>
       <c r="E112">
         <v>60</v>
@@ -3092,16 +3243,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="B113" s="1">
-        <v>43600.812534722223</v>
+        <v>43600.229201388902</v>
       </c>
       <c r="C113">
-        <v>104</v>
-      </c>
-      <c r="D113" s="1">
-        <v>43600.884756944448</v>
+        <v>37</v>
+      </c>
+      <c r="D113" t="s">
+        <v>163</v>
       </c>
       <c r="E113">
         <v>60</v>
@@ -3112,16 +3263,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="B114" s="1">
-        <v>43600.812534722223</v>
+        <v>43600.229201388902</v>
       </c>
       <c r="C114">
-        <v>109</v>
-      </c>
-      <c r="D114" s="1">
-        <v>43600.888229166674</v>
+        <v>38</v>
+      </c>
+      <c r="D114" t="s">
+        <v>165</v>
       </c>
       <c r="E114">
         <v>60</v>
@@ -3132,16 +3283,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="B115" s="1">
-        <v>43600.812534722223</v>
+        <v>43600.229201388902</v>
       </c>
       <c r="C115">
-        <v>117</v>
-      </c>
-      <c r="D115" s="1">
-        <v>43600.893784722226</v>
+        <v>39</v>
+      </c>
+      <c r="D115" t="s">
+        <v>80</v>
       </c>
       <c r="E115">
         <v>60</v>
@@ -3152,16 +3303,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="B116" s="1">
-        <v>43601.062534722223</v>
+        <v>43600.229201388902</v>
       </c>
       <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116" s="1">
-        <v>43601.062534722223</v>
+        <v>51</v>
+      </c>
+      <c r="D116" t="s">
+        <v>168</v>
       </c>
       <c r="E116">
         <v>60</v>
@@ -3172,16 +3323,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="B117" s="1">
-        <v>43601.062534722223</v>
+        <v>43600.645868055602</v>
       </c>
       <c r="C117">
-        <v>18</v>
-      </c>
-      <c r="D117" s="1">
-        <v>43601.075034722227</v>
+        <v>13</v>
+      </c>
+      <c r="D117" t="s">
+        <v>170</v>
       </c>
       <c r="E117">
         <v>60</v>
@@ -3192,16 +3343,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="B118" s="1">
-        <v>43601.062534722223</v>
+        <v>43600.645868055602</v>
       </c>
       <c r="C118">
-        <v>56</v>
-      </c>
-      <c r="D118" s="1">
-        <v>43601.101423611115</v>
+        <v>62</v>
+      </c>
+      <c r="D118" t="s">
+        <v>172</v>
       </c>
       <c r="E118">
         <v>60</v>
@@ -3212,16 +3363,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="B119" s="1">
-        <v>43601.062534722223</v>
+        <v>43600.645868055602</v>
       </c>
       <c r="C119">
         <v>77</v>
       </c>
-      <c r="D119" s="1">
-        <v>43601.116006944452</v>
+      <c r="D119" t="s">
+        <v>99</v>
       </c>
       <c r="E119">
         <v>60</v>
@@ -3232,16 +3383,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="B120" s="1">
-        <v>43601.062534722223</v>
+        <v>43600.645868055602</v>
       </c>
       <c r="C120">
-        <v>88</v>
-      </c>
-      <c r="D120" s="1">
-        <v>43601.123645833337</v>
+        <v>78</v>
+      </c>
+      <c r="D120" t="s">
+        <v>175</v>
       </c>
       <c r="E120">
         <v>60</v>
@@ -3252,16 +3403,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="B121" s="1">
-        <v>43601.145868055559</v>
+        <v>43600.645868055602</v>
       </c>
       <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121" s="1">
-        <v>43601.146562500006</v>
+        <v>113</v>
+      </c>
+      <c r="D121" t="s">
+        <v>112</v>
       </c>
       <c r="E121">
         <v>60</v>
@@ -3272,16 +3423,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="B122" s="1">
-        <v>43601.145868055559</v>
+        <v>43600.812534722201</v>
       </c>
       <c r="C122">
-        <v>4</v>
-      </c>
-      <c r="D122" s="1">
-        <v>43601.148645833331</v>
+        <v>3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>178</v>
       </c>
       <c r="E122">
         <v>60</v>
@@ -3292,16 +3443,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="B123" s="1">
-        <v>43601.145868055559</v>
+        <v>43600.812534722201</v>
       </c>
       <c r="C123">
         <v>12</v>
       </c>
-      <c r="D123" s="1">
-        <v>43601.15420138889</v>
+      <c r="D123" t="s">
+        <v>90</v>
       </c>
       <c r="E123">
         <v>60</v>
@@ -3312,16 +3463,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="B124" s="1">
-        <v>43601.145868055559</v>
+        <v>43600.812534722201</v>
       </c>
       <c r="C124">
-        <v>18</v>
-      </c>
-      <c r="D124" s="1">
-        <v>43601.158368055556</v>
+        <v>17</v>
+      </c>
+      <c r="D124" t="s">
+        <v>92</v>
       </c>
       <c r="E124">
         <v>60</v>
@@ -3332,16 +3483,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="B125" s="1">
-        <v>43601.145868055559</v>
+        <v>43600.812534722201</v>
       </c>
       <c r="C125">
-        <v>23</v>
-      </c>
-      <c r="D125" s="1">
-        <v>43601.161840277775</v>
+        <v>104</v>
+      </c>
+      <c r="D125" t="s">
+        <v>182</v>
       </c>
       <c r="E125">
         <v>60</v>
@@ -3352,16 +3503,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="B126" s="1">
-        <v>43601.229212962964</v>
+        <v>43600.812534722201</v>
       </c>
       <c r="C126">
-        <v>44</v>
-      </c>
-      <c r="D126" s="1">
-        <v>43601.259768518525</v>
+        <v>109</v>
+      </c>
+      <c r="D126" t="s">
+        <v>184</v>
       </c>
       <c r="E126">
         <v>60</v>
@@ -3372,16 +3523,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="B127" s="1">
-        <v>43601.229212962964</v>
+        <v>43600.812534722201</v>
       </c>
       <c r="C127">
-        <v>90</v>
-      </c>
-      <c r="D127" s="1">
-        <v>43601.291712962964</v>
+        <v>117</v>
+      </c>
+      <c r="D127" t="s">
+        <v>88</v>
       </c>
       <c r="E127">
         <v>60</v>
@@ -3392,16 +3543,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="B128" s="1">
-        <v>43601.229212962964</v>
+        <v>43601.062534722201</v>
       </c>
       <c r="C128">
-        <v>91</v>
-      </c>
-      <c r="D128" s="1">
-        <v>43601.292407407411</v>
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>114</v>
       </c>
       <c r="E128">
         <v>60</v>
@@ -3412,16 +3563,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="B129" s="1">
-        <v>43601.229212962964</v>
+        <v>43601.062534722201</v>
       </c>
       <c r="C129">
-        <v>97</v>
-      </c>
-      <c r="D129" s="1">
-        <v>43601.296574074076</v>
+        <v>18</v>
+      </c>
+      <c r="D129" t="s">
+        <v>188</v>
       </c>
       <c r="E129">
         <v>60</v>
@@ -3432,16 +3583,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="B130" s="1">
-        <v>43601.229212962964</v>
+        <v>43601.062534722201</v>
       </c>
       <c r="C130">
-        <v>101</v>
-      </c>
-      <c r="D130" s="1">
-        <v>43601.299351851856</v>
+        <v>56</v>
+      </c>
+      <c r="D130" t="s">
+        <v>190</v>
       </c>
       <c r="E130">
         <v>60</v>
@@ -3452,16 +3603,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="B131" s="1">
-        <v>43602.062534722223</v>
+        <v>43601.062534722201</v>
       </c>
       <c r="C131">
-        <v>25</v>
-      </c>
-      <c r="D131" s="1">
-        <v>43602.07989583334</v>
+        <v>77</v>
+      </c>
+      <c r="D131" t="s">
+        <v>99</v>
       </c>
       <c r="E131">
         <v>60</v>
@@ -3472,16 +3623,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="B132" s="1">
-        <v>43602.062534722223</v>
+        <v>43601.062534722201</v>
       </c>
       <c r="C132">
-        <v>39</v>
-      </c>
-      <c r="D132" s="1">
-        <v>43602.089618055557</v>
+        <v>88</v>
+      </c>
+      <c r="D132" t="s">
+        <v>193</v>
       </c>
       <c r="E132">
         <v>60</v>
@@ -3492,16 +3643,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="B133" s="1">
-        <v>43602.062534722223</v>
+        <v>43601.145868055602</v>
       </c>
       <c r="C133">
-        <v>62</v>
-      </c>
-      <c r="D133" s="1">
-        <v>43602.105590277781</v>
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>195</v>
       </c>
       <c r="E133">
         <v>60</v>
@@ -3512,16 +3663,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="B134" s="1">
-        <v>43602.062534722223</v>
+        <v>43601.145868055602</v>
       </c>
       <c r="C134">
-        <v>71</v>
-      </c>
-      <c r="D134" s="1">
-        <v>43602.111840277779</v>
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>197</v>
       </c>
       <c r="E134">
         <v>60</v>
@@ -3532,16 +3683,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B135" s="1">
-        <v>43602.062534722223</v>
+        <v>43601.145868055602</v>
       </c>
       <c r="C135">
-        <v>107</v>
-      </c>
-      <c r="D135" s="1">
-        <v>43602.136840277781</v>
+        <v>12</v>
+      </c>
+      <c r="D135" t="s">
+        <v>90</v>
       </c>
       <c r="E135">
         <v>60</v>
@@ -3552,16 +3703,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="B136" s="1">
-        <v>43593.059050925927</v>
+        <v>43601.145868055602</v>
       </c>
       <c r="C136">
-        <v>30</v>
-      </c>
-      <c r="D136" s="1">
-        <v>43593.079884259263</v>
+        <v>18</v>
+      </c>
+      <c r="D136" t="s">
+        <v>188</v>
       </c>
       <c r="E136">
         <v>60</v>
@@ -3572,16 +3723,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="B137" s="1">
-        <v>43593.059050925927</v>
+        <v>43601.145868055602</v>
       </c>
       <c r="C137">
-        <v>51</v>
-      </c>
-      <c r="D137" s="1">
-        <v>43593.094467592593</v>
+        <v>23</v>
+      </c>
+      <c r="D137" t="s">
+        <v>119</v>
       </c>
       <c r="E137">
         <v>60</v>
@@ -3592,16 +3743,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="B138" s="1">
-        <v>43593.059050925927</v>
+        <v>43601.229212963</v>
       </c>
       <c r="C138">
-        <v>53</v>
-      </c>
-      <c r="D138" s="1">
-        <v>43593.095856481486</v>
+        <v>44</v>
+      </c>
+      <c r="D138" t="s">
+        <v>202</v>
       </c>
       <c r="E138">
         <v>60</v>
@@ -3612,16 +3763,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="B139" s="1">
-        <v>43593.059050925927</v>
+        <v>43601.229212963</v>
       </c>
       <c r="C139">
-        <v>74</v>
-      </c>
-      <c r="D139" s="1">
-        <v>43593.110439814816</v>
+        <v>90</v>
+      </c>
+      <c r="D139" t="s">
+        <v>204</v>
       </c>
       <c r="E139">
         <v>60</v>
@@ -3632,16 +3783,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="B140" s="1">
-        <v>43593.059050925927</v>
+        <v>43601.229212963</v>
       </c>
       <c r="C140">
-        <v>86</v>
-      </c>
-      <c r="D140" s="1">
-        <v>43593.118773148155</v>
+        <v>91</v>
+      </c>
+      <c r="D140" t="s">
+        <v>66</v>
       </c>
       <c r="E140">
         <v>60</v>
@@ -3652,16 +3803,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="B141" s="1">
-        <v>43629.838958333341</v>
+        <v>43601.229212963</v>
       </c>
       <c r="C141">
-        <v>11</v>
-      </c>
-      <c r="D141" s="1">
-        <v>43629.846597222226</v>
+        <v>97</v>
+      </c>
+      <c r="D141" t="s">
+        <v>207</v>
       </c>
       <c r="E141">
         <v>60</v>
@@ -3672,16 +3823,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="B142" s="1">
-        <v>43629.838958333341</v>
+        <v>43601.229212963</v>
       </c>
       <c r="C142">
-        <v>13</v>
-      </c>
-      <c r="D142" s="1">
-        <v>43629.847986111112</v>
+        <v>101</v>
+      </c>
+      <c r="D142" t="s">
+        <v>209</v>
       </c>
       <c r="E142">
         <v>60</v>
@@ -3692,16 +3843,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="B143" s="1">
-        <v>43629.838958333341</v>
+        <v>43602.062534722201</v>
       </c>
       <c r="C143">
-        <v>16</v>
-      </c>
-      <c r="D143" s="1">
-        <v>43629.850069444445</v>
+        <v>25</v>
+      </c>
+      <c r="D143" t="s">
+        <v>211</v>
       </c>
       <c r="E143">
         <v>60</v>
@@ -3712,16 +3863,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="B144" s="1">
-        <v>43629.838958333341</v>
+        <v>43602.062534722201</v>
       </c>
       <c r="C144">
-        <v>21</v>
-      </c>
-      <c r="D144" s="1">
-        <v>43629.853541666664</v>
+        <v>39</v>
+      </c>
+      <c r="D144" t="s">
+        <v>80</v>
       </c>
       <c r="E144">
         <v>60</v>
@@ -3732,16 +3883,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="B145" s="1">
-        <v>43594.975729166668</v>
+        <v>43602.062534722201</v>
       </c>
       <c r="C145">
-        <v>42</v>
-      </c>
-      <c r="D145" s="1">
-        <v>43595.004895833335</v>
+        <v>62</v>
+      </c>
+      <c r="D145" t="s">
+        <v>172</v>
       </c>
       <c r="E145">
         <v>60</v>
@@ -3752,16 +3903,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="B146" s="1">
-        <v>43594.975729166668</v>
+        <v>43602.062534722201</v>
       </c>
       <c r="C146">
-        <v>45</v>
-      </c>
-      <c r="D146" s="1">
-        <v>43595.006979166668</v>
+        <v>71</v>
+      </c>
+      <c r="D146" t="s">
+        <v>84</v>
       </c>
       <c r="E146">
         <v>60</v>
@@ -3772,16 +3923,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="B147" s="1">
-        <v>43594.975729166668</v>
+        <v>43602.062534722201</v>
       </c>
       <c r="C147">
-        <v>49</v>
-      </c>
-      <c r="D147" s="1">
-        <v>43595.009756944448</v>
+        <v>107</v>
+      </c>
+      <c r="D147" t="s">
+        <v>216</v>
       </c>
       <c r="E147">
         <v>60</v>
@@ -3792,16 +3943,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="B148" s="1">
-        <v>43594.975729166668</v>
+        <v>43593.059050925898</v>
       </c>
       <c r="C148">
-        <v>99</v>
-      </c>
-      <c r="D148" s="1">
-        <v>43595.044479166674</v>
+        <v>30</v>
+      </c>
+      <c r="D148" t="s">
+        <v>218</v>
       </c>
       <c r="E148">
         <v>60</v>
@@ -3812,16 +3963,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="B149" s="1">
-        <v>43594.975729166668</v>
+        <v>43593.059050925898</v>
       </c>
       <c r="C149">
-        <v>103</v>
-      </c>
-      <c r="D149" s="1">
-        <v>43595.047256944446</v>
+        <v>51</v>
+      </c>
+      <c r="D149" t="s">
+        <v>168</v>
       </c>
       <c r="E149">
         <v>60</v>
@@ -3832,16 +3983,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B150" s="1">
-        <v>43595.059074074081</v>
+        <v>43593.059050925898</v>
       </c>
       <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150" s="1">
-        <v>43595.059074074081</v>
+        <v>53</v>
+      </c>
+      <c r="D150" t="s">
+        <v>221</v>
       </c>
       <c r="E150">
         <v>60</v>
@@ -3852,16 +4003,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="B151" s="1">
-        <v>43595.059074074081</v>
+        <v>43593.059050925898</v>
       </c>
       <c r="C151">
-        <v>2</v>
-      </c>
-      <c r="D151" s="1">
-        <v>43595.060462962967</v>
+        <v>74</v>
+      </c>
+      <c r="D151" t="s">
+        <v>223</v>
       </c>
       <c r="E151">
         <v>60</v>
@@ -3872,16 +4023,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="B152" s="1">
-        <v>43595.059074074081</v>
+        <v>43593.059050925898</v>
       </c>
       <c r="C152">
-        <v>99</v>
-      </c>
-      <c r="D152" s="1">
-        <v>43595.127824074072</v>
+        <v>86</v>
+      </c>
+      <c r="D152" t="s">
+        <v>225</v>
       </c>
       <c r="E152">
         <v>60</v>
@@ -3892,16 +4043,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="B153" s="1">
-        <v>43595.059074074081</v>
+        <v>43629.838958333297</v>
       </c>
       <c r="C153">
-        <v>118</v>
-      </c>
-      <c r="D153" s="1">
-        <v>43595.141018518516</v>
+        <v>11</v>
+      </c>
+      <c r="D153" t="s">
+        <v>70</v>
       </c>
       <c r="E153">
         <v>60</v>
@@ -3912,19 +4063,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="B154" s="1">
-        <v>43595.059074074081</v>
+        <v>43629.838958333297</v>
       </c>
       <c r="C154">
-        <v>119</v>
-      </c>
-      <c r="D154" s="1">
-        <v>43595.141712962963</v>
+        <v>13</v>
+      </c>
+      <c r="D154" t="s">
+        <v>170</v>
       </c>
       <c r="E154">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F154">
         <v>22050</v>
@@ -3932,16 +4083,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="B155" s="1">
-        <v>43595.142407407409</v>
+        <v>43629.838958333297</v>
       </c>
       <c r="C155">
-        <v>6</v>
-      </c>
-      <c r="D155" s="1">
-        <v>43595.146574074075</v>
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>229</v>
       </c>
       <c r="E155">
         <v>60</v>
@@ -3952,16 +4103,16 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="B156" s="1">
-        <v>43595.142407407409</v>
+        <v>43629.838958333297</v>
       </c>
       <c r="C156">
-        <v>8</v>
-      </c>
-      <c r="D156" s="1">
-        <v>43595.147962962968</v>
+        <v>21</v>
+      </c>
+      <c r="D156" t="s">
+        <v>231</v>
       </c>
       <c r="E156">
         <v>60</v>
@@ -3972,16 +4123,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="B157" s="1">
-        <v>43595.142407407409</v>
+        <v>43594.975729166697</v>
       </c>
       <c r="C157">
-        <v>9</v>
-      </c>
-      <c r="D157" s="1">
-        <v>43595.148657407415</v>
+        <v>42</v>
+      </c>
+      <c r="D157" t="s">
+        <v>233</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -3992,16 +4143,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="B158" s="1">
-        <v>43595.142407407409</v>
+        <v>43594.975729166697</v>
       </c>
       <c r="C158">
-        <v>33</v>
-      </c>
-      <c r="D158" s="1">
-        <v>43595.165324074078</v>
+        <v>45</v>
+      </c>
+      <c r="D158" t="s">
+        <v>124</v>
       </c>
       <c r="E158">
         <v>60</v>
@@ -4012,16 +4163,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="B159" s="1">
-        <v>43595.142407407409</v>
+        <v>43594.975729166697</v>
       </c>
       <c r="C159">
-        <v>87</v>
-      </c>
-      <c r="D159" s="1">
-        <v>43595.202824074076</v>
+        <v>49</v>
+      </c>
+      <c r="D159" t="s">
+        <v>236</v>
       </c>
       <c r="E159">
         <v>60</v>
@@ -4032,230 +4183,251 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>164</v>
-      </c>
-      <c r="B160" s="1"/>
-      <c r="D160" s="1"/>
+        <v>237</v>
+      </c>
+      <c r="B160" s="1">
+        <v>43594.975729166697</v>
+      </c>
+      <c r="C160">
+        <v>99</v>
+      </c>
+      <c r="D160" t="s">
+        <v>103</v>
+      </c>
       <c r="E160">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F160">
-        <v>24000</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="B161" s="1">
-        <v>42106.406851851854</v>
-      </c>
-      <c r="D161" s="1"/>
+        <v>43594.975729166697</v>
+      </c>
+      <c r="C161">
+        <v>103</v>
+      </c>
+      <c r="D161" t="s">
+        <v>86</v>
+      </c>
       <c r="E161">
         <v>60</v>
       </c>
       <c r="F161">
-        <v>24000</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>166</v>
-      </c>
-      <c r="B162" s="1"/>
-      <c r="D162" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="B162" s="1">
+        <v>43595.059074074103</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162" t="s">
+        <v>114</v>
+      </c>
       <c r="E162">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F162">
-        <v>24000</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="B163" s="1">
-        <v>42824.48096064815</v>
-      </c>
-      <c r="D163" s="1"/>
+        <v>43595.059074074103</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>136</v>
+      </c>
       <c r="E163">
         <v>60</v>
       </c>
       <c r="F163">
-        <v>44100</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="B164" s="1">
-        <v>42824.48096064815</v>
-      </c>
-      <c r="D164" s="1"/>
+        <v>43595.059074074103</v>
+      </c>
+      <c r="C164">
+        <v>99</v>
+      </c>
+      <c r="D164" t="s">
+        <v>103</v>
+      </c>
       <c r="E164">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F164">
-        <v>44100</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="B165" s="1">
-        <v>42866.269097222226</v>
+        <v>43595.059074074103</v>
       </c>
       <c r="C165">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1">
-        <v>42866.269791666673</v>
+        <v>118</v>
+      </c>
+      <c r="D165" t="s">
+        <v>243</v>
       </c>
       <c r="E165">
         <v>60</v>
       </c>
       <c r="F165">
-        <v>24000</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="B166" s="1">
-        <v>42866.269097222226</v>
+        <v>43595.059074074103</v>
       </c>
       <c r="C166">
-        <v>2</v>
-      </c>
-      <c r="D166" s="1">
-        <v>42866.270486111112</v>
+        <v>119</v>
+      </c>
+      <c r="D166" t="s">
+        <v>245</v>
       </c>
       <c r="E166">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F166">
-        <v>24000</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="B167" s="1">
-        <v>42866.269097222226</v>
+        <v>43595.142407407402</v>
       </c>
       <c r="C167">
-        <v>3</v>
-      </c>
-      <c r="D167" s="1">
-        <v>42866.271180555559</v>
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>60</v>
       </c>
       <c r="E167">
         <v>60</v>
       </c>
       <c r="F167">
-        <v>24000</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>172</v>
+        <v>247</v>
       </c>
       <c r="B168" s="1">
-        <v>42866.269097222226</v>
+        <v>43595.142407407402</v>
       </c>
       <c r="C168">
-        <v>6</v>
-      </c>
-      <c r="D168" s="1">
-        <v>42866.273263888892</v>
+        <v>8</v>
+      </c>
+      <c r="D168" t="s">
+        <v>248</v>
       </c>
       <c r="E168">
         <v>60</v>
       </c>
       <c r="F168">
-        <v>24000</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="B169" s="1">
-        <v>42873.820555555554</v>
+        <v>43595.142407407402</v>
       </c>
       <c r="C169">
-        <v>0</v>
-      </c>
-      <c r="D169" s="1">
-        <v>42873.820555555554</v>
+        <v>9</v>
+      </c>
+      <c r="D169" t="s">
+        <v>250</v>
       </c>
       <c r="E169">
         <v>60</v>
       </c>
       <c r="F169">
-        <v>24000</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="B170" s="1">
-        <v>42873.820555555554</v>
+        <v>43595.142407407402</v>
       </c>
       <c r="C170">
-        <v>5</v>
-      </c>
-      <c r="D170" s="1">
-        <v>42873.82402777778</v>
+        <v>33</v>
+      </c>
+      <c r="D170" t="s">
+        <v>252</v>
       </c>
       <c r="E170">
         <v>60</v>
       </c>
       <c r="F170">
-        <v>24000</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="B171" s="1">
-        <v>42873.820555555554</v>
+        <v>43595.142407407402</v>
       </c>
       <c r="C171">
-        <v>9</v>
-      </c>
-      <c r="D171" s="1">
-        <v>42873.82680555556</v>
+        <v>87</v>
+      </c>
+      <c r="D171" t="s">
+        <v>158</v>
       </c>
       <c r="E171">
         <v>60</v>
       </c>
       <c r="F171">
-        <v>24000</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>176</v>
-      </c>
-      <c r="B172" s="1">
-        <v>42873.820555555554</v>
-      </c>
-      <c r="C172">
-        <v>10</v>
-      </c>
-      <c r="D172" s="1">
-        <v>42873.827500000007</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B172" s="1"/>
       <c r="E172">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="F172">
         <v>24000</v>
@@ -4263,16 +4435,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="B173" s="1">
-        <v>42873.820555555554</v>
-      </c>
-      <c r="C173">
-        <v>13</v>
-      </c>
-      <c r="D173" s="1">
-        <v>42873.829583333332</v>
+        <v>42106.406851851898</v>
       </c>
       <c r="E173">
         <v>60</v>
@@ -4283,19 +4449,11 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>178</v>
-      </c>
-      <c r="B174" s="1">
-        <v>42873.820555555554</v>
-      </c>
-      <c r="C174">
-        <v>14</v>
-      </c>
-      <c r="D174" s="1">
-        <v>42873.830277777779</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B174" s="1"/>
       <c r="E174">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="F174">
         <v>24000</v>
@@ -4303,56 +4461,44 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="B175" s="1">
-        <v>42881.850706018522</v>
-      </c>
-      <c r="C175">
-        <v>6</v>
-      </c>
-      <c r="D175" s="1">
-        <v>42881.854872685188</v>
+        <v>42824.480960648201</v>
       </c>
       <c r="E175">
         <v>60</v>
       </c>
       <c r="F175">
-        <v>24000</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="B176" s="1">
-        <v>42881.850706018522</v>
-      </c>
-      <c r="C176">
-        <v>7</v>
-      </c>
-      <c r="D176" s="1">
-        <v>42881.855567129627</v>
+        <v>42824.480960648201</v>
       </c>
       <c r="E176">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F176">
-        <v>24000</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="B177" s="1">
-        <v>42881.850706018522</v>
+        <v>42866.269097222197</v>
       </c>
       <c r="C177">
-        <v>11</v>
-      </c>
-      <c r="D177" s="1">
-        <v>42881.858344907414</v>
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>195</v>
       </c>
       <c r="E177">
         <v>60</v>
@@ -4363,16 +4509,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="B178" s="1">
-        <v>42881.850706018522</v>
+        <v>42866.269097222197</v>
       </c>
       <c r="C178">
-        <v>12</v>
-      </c>
-      <c r="D178" s="1">
-        <v>42881.859039351853</v>
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>136</v>
       </c>
       <c r="E178">
         <v>60</v>
@@ -4383,16 +4529,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="B179" s="1">
-        <v>43338.370162037041</v>
+        <v>42866.269097222197</v>
       </c>
       <c r="C179">
-        <v>10</v>
-      </c>
-      <c r="D179" s="1">
-        <v>43338.377106481486</v>
+        <v>3</v>
+      </c>
+      <c r="D179" t="s">
+        <v>178</v>
       </c>
       <c r="E179">
         <v>60</v>
@@ -4403,16 +4549,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="B180" s="1">
-        <v>43338.370162037041</v>
+        <v>42866.269097222197</v>
       </c>
       <c r="C180">
-        <v>12</v>
-      </c>
-      <c r="D180" s="1">
-        <v>43338.378495370373</v>
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>60</v>
       </c>
       <c r="E180">
         <v>60</v>
@@ -4423,16 +4569,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="B181" s="1">
-        <v>43338.370162037041</v>
+        <v>42873.820555555598</v>
       </c>
       <c r="C181">
-        <v>15</v>
-      </c>
-      <c r="D181" s="1">
-        <v>43338.380578703705</v>
+        <v>0</v>
+      </c>
+      <c r="D181" t="s">
+        <v>114</v>
       </c>
       <c r="E181">
         <v>60</v>
@@ -4443,16 +4589,16 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="B182" s="1">
-        <v>43338.370162037041</v>
+        <v>42873.820555555598</v>
       </c>
       <c r="C182">
-        <v>24</v>
-      </c>
-      <c r="D182" s="1">
-        <v>43338.386828703711</v>
+        <v>5</v>
+      </c>
+      <c r="D182" t="s">
+        <v>122</v>
       </c>
       <c r="E182">
         <v>60</v>
@@ -4463,16 +4609,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="B183" s="1">
-        <v>43338.370162037041</v>
+        <v>42873.820555555598</v>
       </c>
       <c r="C183">
-        <v>27</v>
-      </c>
-      <c r="D183" s="1">
-        <v>43338.388912037037</v>
+        <v>9</v>
+      </c>
+      <c r="D183" t="s">
+        <v>250</v>
       </c>
       <c r="E183">
         <v>60</v>
@@ -4483,16 +4629,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="B184" s="1">
-        <v>43338.370162037041</v>
+        <v>42873.820555555598</v>
       </c>
       <c r="C184">
-        <v>28</v>
-      </c>
-      <c r="D184" s="1">
-        <v>43338.389606481483</v>
+        <v>10</v>
+      </c>
+      <c r="D184" t="s">
+        <v>62</v>
       </c>
       <c r="E184">
         <v>60</v>
@@ -4503,16 +4649,16 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="B185" s="1">
-        <v>42494.775810185187</v>
+        <v>42873.820555555598</v>
       </c>
       <c r="C185">
-        <v>3</v>
-      </c>
-      <c r="D185" s="1">
-        <v>42494.77789351852</v>
+        <v>13</v>
+      </c>
+      <c r="D185" t="s">
+        <v>170</v>
       </c>
       <c r="E185">
         <v>60</v>
@@ -4523,16 +4669,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="B186" s="1">
-        <v>42494.775810185187</v>
+        <v>42873.820555555598</v>
       </c>
       <c r="C186">
-        <v>7</v>
-      </c>
-      <c r="D186" s="1">
-        <v>42494.780671296299</v>
+        <v>14</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
       </c>
       <c r="E186">
         <v>60</v>
@@ -4543,16 +4689,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="B187" s="1">
-        <v>42495.775810185187</v>
+        <v>42881.8507060185</v>
       </c>
       <c r="C187">
-        <v>9</v>
-      </c>
-      <c r="D187" s="1">
-        <v>42495.782060185193</v>
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>60</v>
       </c>
       <c r="E187">
         <v>60</v>
@@ -4563,16 +4709,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>192</v>
+        <v>270</v>
       </c>
       <c r="B188" s="1">
-        <v>42495.775810185187</v>
+        <v>42881.8507060185</v>
       </c>
       <c r="C188">
-        <v>19</v>
-      </c>
-      <c r="D188" s="1">
-        <v>42495.789004629631</v>
+        <v>7</v>
+      </c>
+      <c r="D188" t="s">
+        <v>271</v>
       </c>
       <c r="E188">
         <v>60</v>
@@ -4583,16 +4729,16 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="B189" s="1">
-        <v>42495.775810185187</v>
+        <v>42881.8507060185</v>
       </c>
       <c r="C189">
-        <v>23</v>
-      </c>
-      <c r="D189" s="1">
-        <v>42495.79178240741</v>
+        <v>11</v>
+      </c>
+      <c r="D189" t="s">
+        <v>70</v>
       </c>
       <c r="E189">
         <v>60</v>
@@ -4603,16 +4749,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="B190" s="1">
-        <v>42495.775810185187</v>
+        <v>42881.8507060185</v>
       </c>
       <c r="C190">
-        <v>27</v>
-      </c>
-      <c r="D190" s="1">
-        <v>42495.79456018519</v>
+        <v>12</v>
+      </c>
+      <c r="D190" t="s">
+        <v>90</v>
       </c>
       <c r="E190">
         <v>60</v>
@@ -4623,16 +4769,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="B191" s="1">
-        <v>42513.41609953704</v>
+        <v>43338.370162036997</v>
       </c>
       <c r="C191">
-        <v>0</v>
-      </c>
-      <c r="D191" s="1">
-        <v>42513.41609953704</v>
+        <v>10</v>
+      </c>
+      <c r="D191" t="s">
+        <v>62</v>
       </c>
       <c r="E191">
         <v>60</v>
@@ -4643,16 +4789,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="B192" s="1">
-        <v>42513.41609953704</v>
+        <v>43338.370162036997</v>
       </c>
       <c r="C192">
-        <v>1</v>
-      </c>
-      <c r="D192" s="1">
-        <v>42513.416793981487</v>
+        <v>12</v>
+      </c>
+      <c r="D192" t="s">
+        <v>90</v>
       </c>
       <c r="E192">
         <v>60</v>
@@ -4663,16 +4809,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="B193" s="1">
-        <v>42513.41609953704</v>
+        <v>43338.370162036997</v>
       </c>
       <c r="C193">
-        <v>2</v>
-      </c>
-      <c r="D193" s="1">
-        <v>42513.417488425934</v>
+        <v>15</v>
+      </c>
+      <c r="D193" t="s">
+        <v>277</v>
       </c>
       <c r="E193">
         <v>60</v>
@@ -4683,16 +4829,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="B194" s="1">
-        <v>42513.41609953704</v>
+        <v>43338.370162036997</v>
       </c>
       <c r="C194">
-        <v>3</v>
-      </c>
-      <c r="D194" s="1">
-        <v>42513.418182870373</v>
+        <v>24</v>
+      </c>
+      <c r="D194" t="s">
+        <v>72</v>
       </c>
       <c r="E194">
         <v>60</v>
@@ -4703,16 +4849,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
       <c r="B195" s="1">
-        <v>42513.41609953704</v>
+        <v>43338.370162036997</v>
       </c>
       <c r="C195">
-        <v>4</v>
-      </c>
-      <c r="D195" s="1">
-        <v>42513.418877314813</v>
+        <v>27</v>
+      </c>
+      <c r="D195" t="s">
+        <v>280</v>
       </c>
       <c r="E195">
         <v>60</v>
@@ -4723,16 +4869,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="B196" s="1">
-        <v>42857.278263888897</v>
+        <v>43338.370162036997</v>
       </c>
       <c r="C196">
-        <v>0</v>
-      </c>
-      <c r="D196" s="1">
-        <v>42857.278263888897</v>
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>138</v>
       </c>
       <c r="E196">
         <v>60</v>
@@ -4743,16 +4889,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="B197" s="1">
-        <v>42857.278263888897</v>
+        <v>42494.775810185201</v>
       </c>
       <c r="C197">
-        <v>2</v>
-      </c>
-      <c r="D197" s="1">
-        <v>42857.279652777775</v>
+        <v>3</v>
+      </c>
+      <c r="D197" t="s">
+        <v>178</v>
       </c>
       <c r="E197">
         <v>60</v>
@@ -4763,16 +4909,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="B198" s="1">
-        <v>42857.278263888897</v>
+        <v>42494.775810185201</v>
       </c>
       <c r="C198">
-        <v>4</v>
-      </c>
-      <c r="D198" s="1">
-        <v>42857.281041666669</v>
+        <v>7</v>
+      </c>
+      <c r="D198" t="s">
+        <v>271</v>
       </c>
       <c r="E198">
         <v>60</v>
@@ -4783,16 +4929,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="B199" s="1">
-        <v>42857.278263888897</v>
+        <v>42495.775810185201</v>
       </c>
       <c r="C199">
-        <v>5</v>
-      </c>
-      <c r="D199" s="1">
-        <v>42857.281736111116</v>
+        <v>9</v>
+      </c>
+      <c r="D199" t="s">
+        <v>250</v>
       </c>
       <c r="E199">
         <v>60</v>
@@ -4803,16 +4949,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>204</v>
+        <v>285</v>
       </c>
       <c r="B200" s="1">
-        <v>42857.278263888897</v>
+        <v>42495.775810185201</v>
       </c>
       <c r="C200">
-        <v>6</v>
-      </c>
-      <c r="D200" s="1">
-        <v>42857.282430555562</v>
+        <v>19</v>
+      </c>
+      <c r="D200" t="s">
+        <v>117</v>
       </c>
       <c r="E200">
         <v>60</v>
@@ -4823,16 +4969,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="B201" s="1">
-        <v>42857.278263888897</v>
+        <v>42495.775810185201</v>
       </c>
       <c r="C201">
-        <v>7</v>
-      </c>
-      <c r="D201" s="1">
-        <v>42857.283125000002</v>
+        <v>23</v>
+      </c>
+      <c r="D201" t="s">
+        <v>119</v>
       </c>
       <c r="E201">
         <v>60</v>
@@ -4843,16 +4989,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="B202" s="1">
-        <v>42864.810763888891</v>
+        <v>42495.775810185201</v>
       </c>
       <c r="C202">
-        <v>11</v>
-      </c>
-      <c r="D202" s="1">
-        <v>42864.818402777782</v>
+        <v>27</v>
+      </c>
+      <c r="D202" t="s">
+        <v>280</v>
       </c>
       <c r="E202">
         <v>60</v>
@@ -4863,16 +5009,16 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="B203" s="1">
-        <v>42864.810763888891</v>
+        <v>42513.416099536997</v>
       </c>
       <c r="C203">
-        <v>18</v>
-      </c>
-      <c r="D203" s="1">
-        <v>42864.823263888895</v>
+        <v>0</v>
+      </c>
+      <c r="D203" t="s">
+        <v>114</v>
       </c>
       <c r="E203">
         <v>60</v>
@@ -4883,16 +5029,16 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>208</v>
+        <v>289</v>
       </c>
       <c r="B204" s="1">
-        <v>42881.767372685186</v>
+        <v>42513.416099536997</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
-      <c r="D204" s="1">
-        <v>42881.768067129633</v>
+      <c r="D204" t="s">
+        <v>195</v>
       </c>
       <c r="E204">
         <v>60</v>
@@ -4903,16 +5049,16 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>209</v>
+        <v>290</v>
       </c>
       <c r="B205" s="1">
-        <v>42881.767372685186</v>
+        <v>42513.416099536997</v>
       </c>
       <c r="C205">
-        <v>3</v>
-      </c>
-      <c r="D205" s="1">
-        <v>42881.769456018526</v>
+        <v>2</v>
+      </c>
+      <c r="D205" t="s">
+        <v>136</v>
       </c>
       <c r="E205">
         <v>60</v>
@@ -4923,16 +5069,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>210</v>
+        <v>291</v>
       </c>
       <c r="B206" s="1">
-        <v>42881.767372685186</v>
+        <v>42513.416099536997</v>
       </c>
       <c r="C206">
-        <v>42</v>
-      </c>
-      <c r="D206" s="1">
-        <v>42881.796539351853</v>
+        <v>3</v>
+      </c>
+      <c r="D206" t="s">
+        <v>178</v>
       </c>
       <c r="E206">
         <v>60</v>
@@ -4943,16 +5089,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>211</v>
+        <v>292</v>
       </c>
       <c r="B207" s="1">
-        <v>42881.767372685186</v>
+        <v>42513.416099536997</v>
       </c>
       <c r="C207">
-        <v>58</v>
-      </c>
-      <c r="D207" s="1">
-        <v>42881.807650462964</v>
+        <v>4</v>
+      </c>
+      <c r="D207" t="s">
+        <v>197</v>
       </c>
       <c r="E207">
         <v>60</v>
@@ -4963,19 +5109,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>212</v>
+        <v>293</v>
       </c>
       <c r="B208" s="1">
-        <v>42881.767372685186</v>
+        <v>42857.278263888897</v>
       </c>
       <c r="C208">
-        <v>59</v>
-      </c>
-      <c r="D208" s="1">
-        <v>42881.808344907411</v>
+        <v>0</v>
+      </c>
+      <c r="D208" t="s">
+        <v>114</v>
       </c>
       <c r="E208">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F208">
         <v>24000</v>
@@ -4983,16 +5129,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>213</v>
+        <v>294</v>
       </c>
       <c r="B209" s="1">
-        <v>42881.809039351858</v>
+        <v>42857.278263888897</v>
       </c>
       <c r="C209">
-        <v>4</v>
-      </c>
-      <c r="D209" s="1">
-        <v>42881.81181712963</v>
+        <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>136</v>
       </c>
       <c r="E209">
         <v>60</v>
@@ -5003,16 +5149,16 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>214</v>
+        <v>295</v>
       </c>
       <c r="B210" s="1">
-        <v>42881.809039351858</v>
+        <v>42857.278263888897</v>
       </c>
       <c r="C210">
-        <v>22</v>
-      </c>
-      <c r="D210" s="1">
-        <v>42881.824317129627</v>
+        <v>4</v>
+      </c>
+      <c r="D210" t="s">
+        <v>197</v>
       </c>
       <c r="E210">
         <v>60</v>
@@ -5023,16 +5169,16 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>215</v>
+        <v>296</v>
       </c>
       <c r="B211" s="1">
-        <v>42881.809039351858</v>
+        <v>42857.278263888897</v>
       </c>
       <c r="C211">
-        <v>37</v>
-      </c>
-      <c r="D211" s="1">
-        <v>42881.834733796299</v>
+        <v>5</v>
+      </c>
+      <c r="D211" t="s">
+        <v>122</v>
       </c>
       <c r="E211">
         <v>60</v>
@@ -5043,16 +5189,16 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="B212" s="1">
-        <v>42881.809039351858</v>
+        <v>42857.278263888897</v>
       </c>
       <c r="C212">
-        <v>41</v>
-      </c>
-      <c r="D212" s="1">
-        <v>42881.837511574078</v>
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>60</v>
       </c>
       <c r="E212">
         <v>60</v>
@@ -5063,16 +5209,16 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="B213" s="1">
-        <v>42881.809039351858</v>
+        <v>42857.278263888897</v>
       </c>
       <c r="C213">
-        <v>44</v>
-      </c>
-      <c r="D213" s="1">
-        <v>42881.839594907411</v>
+        <v>7</v>
+      </c>
+      <c r="D213" t="s">
+        <v>271</v>
       </c>
       <c r="E213">
         <v>60</v>
@@ -5083,16 +5229,16 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>218</v>
+        <v>299</v>
       </c>
       <c r="B214" s="1">
-        <v>43339.370162037041</v>
+        <v>42864.810763888898</v>
       </c>
       <c r="C214">
-        <v>12</v>
-      </c>
-      <c r="D214" s="1">
-        <v>43339.378495370373</v>
+        <v>11</v>
+      </c>
+      <c r="D214" t="s">
+        <v>70</v>
       </c>
       <c r="E214">
         <v>60</v>
@@ -5103,16 +5249,16 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="B215" s="1">
-        <v>43339.370162037041</v>
+        <v>42864.810763888898</v>
       </c>
       <c r="C215">
-        <v>13</v>
-      </c>
-      <c r="D215" s="1">
-        <v>43339.379189814812</v>
+        <v>18</v>
+      </c>
+      <c r="D215" t="s">
+        <v>188</v>
       </c>
       <c r="E215">
         <v>60</v>
@@ -5123,16 +5269,16 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="B216" s="1">
-        <v>43339.370162037041</v>
+        <v>42881.767372685201</v>
       </c>
       <c r="C216">
-        <v>17</v>
-      </c>
-      <c r="D216" s="1">
-        <v>43339.381967592599</v>
+        <v>1</v>
+      </c>
+      <c r="D216" t="s">
+        <v>195</v>
       </c>
       <c r="E216">
         <v>60</v>
@@ -5143,16 +5289,16 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c r="B217" s="1">
-        <v>43339.370162037041</v>
+        <v>42881.767372685201</v>
       </c>
       <c r="C217">
-        <v>19</v>
-      </c>
-      <c r="D217" s="1">
-        <v>43339.383356481485</v>
+        <v>3</v>
+      </c>
+      <c r="D217" t="s">
+        <v>178</v>
       </c>
       <c r="E217">
         <v>60</v>
@@ -5163,16 +5309,16 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>222</v>
+        <v>303</v>
       </c>
       <c r="B218" s="1">
-        <v>43340.370856481481</v>
+        <v>42881.767372685201</v>
       </c>
       <c r="C218">
-        <v>5</v>
-      </c>
-      <c r="D218" s="1">
-        <v>43340.374328703707</v>
+        <v>42</v>
+      </c>
+      <c r="D218" t="s">
+        <v>233</v>
       </c>
       <c r="E218">
         <v>60</v>
@@ -5183,16 +5329,16 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="B219" s="1">
-        <v>43340.370856481481</v>
+        <v>42881.767372685201</v>
       </c>
       <c r="C219">
-        <v>14</v>
-      </c>
-      <c r="D219" s="1">
-        <v>43340.380578703705</v>
+        <v>58</v>
+      </c>
+      <c r="D219" t="s">
+        <v>305</v>
       </c>
       <c r="E219">
         <v>60</v>
@@ -5203,19 +5349,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="B220" s="1">
-        <v>43340.370856481481</v>
+        <v>42881.767372685201</v>
       </c>
       <c r="C220">
-        <v>27</v>
-      </c>
-      <c r="D220" s="1">
-        <v>43340.389606481483</v>
+        <v>59</v>
+      </c>
+      <c r="D220" t="s">
+        <v>108</v>
       </c>
       <c r="E220">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F220">
         <v>24000</v>
@@ -5223,16 +5369,16 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="B221" s="1">
-        <v>42890.462199074078</v>
+        <v>42881.809039351901</v>
       </c>
       <c r="C221">
-        <v>56</v>
-      </c>
-      <c r="D221" s="1">
-        <v>42890.501087962963</v>
+        <v>4</v>
+      </c>
+      <c r="D221" t="s">
+        <v>197</v>
       </c>
       <c r="E221">
         <v>60</v>
@@ -5243,16 +5389,16 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B222" s="1">
-        <v>42469.771412037044</v>
+        <v>42881.809039351901</v>
       </c>
       <c r="C222">
-        <v>47</v>
-      </c>
-      <c r="D222" s="1">
-        <v>42469.80405092593</v>
+        <v>22</v>
+      </c>
+      <c r="D222" t="s">
+        <v>309</v>
       </c>
       <c r="E222">
         <v>60</v>
@@ -5263,16 +5409,16 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="B223" s="1">
-        <v>42469.771412037044</v>
+        <v>42881.809039351901</v>
       </c>
       <c r="C223">
-        <v>54</v>
-      </c>
-      <c r="D223" s="1">
-        <v>42469.808912037035</v>
+        <v>37</v>
+      </c>
+      <c r="D223" t="s">
+        <v>163</v>
       </c>
       <c r="E223">
         <v>60</v>
@@ -5283,16 +5429,16 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>228</v>
+        <v>311</v>
       </c>
       <c r="B224" s="1">
-        <v>42495.792256944442</v>
+        <v>42881.809039351901</v>
       </c>
       <c r="C224">
-        <v>40</v>
-      </c>
-      <c r="D224" s="1">
-        <v>42495.820034722223</v>
+        <v>41</v>
+      </c>
+      <c r="D224" t="s">
+        <v>312</v>
       </c>
       <c r="E224">
         <v>60</v>
@@ -5303,16 +5449,16 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="B225" s="1">
-        <v>42495.792256944442</v>
+        <v>42881.809039351901</v>
       </c>
       <c r="C225">
-        <v>41</v>
-      </c>
-      <c r="D225" s="1">
-        <v>42495.820729166669</v>
+        <v>44</v>
+      </c>
+      <c r="D225" t="s">
+        <v>202</v>
       </c>
       <c r="E225">
         <v>60</v>
@@ -5323,129 +5469,199 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>230</v>
-      </c>
-      <c r="B226" s="1"/>
-      <c r="D226" s="1"/>
+        <v>314</v>
+      </c>
+      <c r="B226" s="1">
+        <v>43339.370162036997</v>
+      </c>
+      <c r="C226">
+        <v>12</v>
+      </c>
+      <c r="D226" t="s">
+        <v>90</v>
+      </c>
       <c r="E226">
         <v>60</v>
       </c>
       <c r="F226">
-        <v>44100</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>231</v>
-      </c>
-      <c r="B227" s="1"/>
-      <c r="D227" s="1"/>
+        <v>315</v>
+      </c>
+      <c r="B227" s="1">
+        <v>43339.370162036997</v>
+      </c>
+      <c r="C227">
+        <v>13</v>
+      </c>
+      <c r="D227" t="s">
+        <v>170</v>
+      </c>
       <c r="E227">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F227">
-        <v>44100</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>232</v>
-      </c>
-      <c r="B228" s="1"/>
-      <c r="D228" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="B228" s="1">
+        <v>43339.370162036997</v>
+      </c>
+      <c r="C228">
+        <v>17</v>
+      </c>
+      <c r="D228" t="s">
+        <v>92</v>
+      </c>
       <c r="E228">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F228">
-        <v>44100</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>233</v>
-      </c>
-      <c r="B229" s="1"/>
-      <c r="D229" s="1"/>
+        <v>317</v>
+      </c>
+      <c r="B229" s="1">
+        <v>43339.370162036997</v>
+      </c>
+      <c r="C229">
+        <v>19</v>
+      </c>
+      <c r="D229" t="s">
+        <v>117</v>
+      </c>
       <c r="E229">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F229">
-        <v>44100</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>234</v>
-      </c>
-      <c r="B230" s="1"/>
-      <c r="D230" s="1"/>
+        <v>318</v>
+      </c>
+      <c r="B230" s="1">
+        <v>43340.370856481502</v>
+      </c>
+      <c r="C230">
+        <v>5</v>
+      </c>
+      <c r="D230" t="s">
+        <v>122</v>
+      </c>
       <c r="E230">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F230">
-        <v>44100</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>235</v>
-      </c>
-      <c r="B231" s="1"/>
-      <c r="D231" s="1"/>
+        <v>319</v>
+      </c>
+      <c r="B231" s="1">
+        <v>43340.370856481502</v>
+      </c>
+      <c r="C231">
+        <v>14</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
       <c r="E231">
         <v>60</v>
       </c>
       <c r="F231">
-        <v>44100</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>236</v>
-      </c>
-      <c r="B232" s="1"/>
-      <c r="D232" s="1"/>
+        <v>320</v>
+      </c>
+      <c r="B232" s="1">
+        <v>43340.370856481502</v>
+      </c>
+      <c r="C232">
+        <v>27</v>
+      </c>
+      <c r="D232" t="s">
+        <v>280</v>
+      </c>
       <c r="E232">
         <v>60</v>
       </c>
       <c r="F232">
-        <v>44100</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>237</v>
-      </c>
-      <c r="B233" s="1"/>
-      <c r="D233" s="1"/>
+        <v>321</v>
+      </c>
+      <c r="B233" s="1">
+        <v>42890.4621990741</v>
+      </c>
+      <c r="C233">
+        <v>56</v>
+      </c>
+      <c r="D233" t="s">
+        <v>190</v>
+      </c>
       <c r="E233">
         <v>60</v>
       </c>
       <c r="F233">
-        <v>44100</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>238</v>
-      </c>
-      <c r="B234" s="1"/>
-      <c r="D234" s="1"/>
+        <v>322</v>
+      </c>
+      <c r="B234" s="1">
+        <v>42469.771412037</v>
+      </c>
+      <c r="C234">
+        <v>47</v>
+      </c>
+      <c r="D234" t="s">
+        <v>126</v>
+      </c>
       <c r="E234">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F234">
-        <v>44100</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>239</v>
-      </c>
-      <c r="B235" s="1"/>
-      <c r="D235" s="1"/>
+        <v>323</v>
+      </c>
+      <c r="B235" s="1">
+        <v>42469.771412037</v>
+      </c>
+      <c r="C235">
+        <v>54</v>
+      </c>
+      <c r="D235" t="s">
+        <v>150</v>
+      </c>
       <c r="E235">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F235">
         <v>24000</v>
@@ -5453,12 +5669,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>240</v>
-      </c>
-      <c r="B236" s="1"/>
-      <c r="D236" s="1"/>
+        <v>324</v>
+      </c>
+      <c r="B236" s="1">
+        <v>42495.792256944398</v>
+      </c>
+      <c r="C236">
+        <v>40</v>
+      </c>
+      <c r="D236" t="s">
+        <v>106</v>
+      </c>
       <c r="E236">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F236">
         <v>24000</v>
@@ -5466,12 +5689,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>241</v>
-      </c>
-      <c r="B237" s="1"/>
-      <c r="D237" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="B237" s="1">
+        <v>42495.792256944398</v>
+      </c>
+      <c r="C237">
+        <v>41</v>
+      </c>
+      <c r="D237" t="s">
+        <v>312</v>
+      </c>
       <c r="E237">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F237">
         <v>24000</v>
@@ -5479,129 +5709,119 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="B238" s="1"/>
-      <c r="D238" s="1"/>
       <c r="E238">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F238">
-        <v>24000</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="B239" s="1"/>
-      <c r="D239" s="1"/>
       <c r="E239">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F239">
-        <v>24000</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="B240" s="1"/>
-      <c r="D240" s="1"/>
       <c r="E240">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F240">
-        <v>24000</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="B241" s="1"/>
-      <c r="D241" s="1"/>
       <c r="E241">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F241">
-        <v>24000</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="B242" s="1"/>
-      <c r="D242" s="1"/>
       <c r="E242">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F242">
-        <v>24000</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="B243" s="1"/>
-      <c r="D243" s="1"/>
       <c r="E243">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F243">
-        <v>24000</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="B244" s="1"/>
-      <c r="D244" s="1"/>
       <c r="E244">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F244">
-        <v>24000</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="B245" s="1"/>
-      <c r="D245" s="1"/>
       <c r="E245">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F245">
-        <v>24000</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="B246" s="1"/>
-      <c r="D246" s="1"/>
       <c r="E246">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F246">
-        <v>24000</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="B247" s="1"/>
-      <c r="D247" s="1"/>
       <c r="E247">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F247">
         <v>24000</v>
@@ -5609,14 +5829,157 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="B248" s="1"/>
-      <c r="D248" s="1"/>
       <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>337</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>338</v>
+      </c>
+      <c r="B250" s="1"/>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>339</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="E251">
+        <v>42</v>
+      </c>
+      <c r="F251">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>340</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="E252">
+        <v>45</v>
+      </c>
+      <c r="F252">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>341</v>
+      </c>
+      <c r="B253" s="1"/>
+      <c r="E253">
+        <v>2</v>
+      </c>
+      <c r="F253">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>342</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="E254">
+        <v>3</v>
+      </c>
+      <c r="F254">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>343</v>
+      </c>
+      <c r="B255" s="1"/>
+      <c r="E255">
+        <v>14</v>
+      </c>
+      <c r="F255">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>344</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>345</v>
+      </c>
+      <c r="B257" s="1"/>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>346</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>347</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="E259">
+        <v>8</v>
+      </c>
+      <c r="F259">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>348</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="E260">
         <v>5</v>
       </c>
-      <c r="F248">
+      <c r="F260">
         <v>24000</v>
       </c>
     </row>
